--- a/template_v1.0_20210812.xlsx
+++ b/template_v1.0_20210812.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case_python\check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9208EEA0-2652-4AE7-8304-EDF6C2A8A751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52D2866-76C4-4399-9708-34F0823F98F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_lib" sheetId="1" r:id="rId1"/>
     <sheet name="FD_lib" sheetId="2" r:id="rId2"/>
-    <sheet name="para_recommend_lib" sheetId="3" r:id="rId3"/>
+    <sheet name="para_recommend_lib" sheetId="15" r:id="rId3"/>
     <sheet name="para_recommend_lib (odd)" sheetId="14" r:id="rId4"/>
-    <sheet name="para_range_lib" sheetId="4" r:id="rId5"/>
+    <sheet name="para_range_lib" sheetId="16" r:id="rId5"/>
     <sheet name="df_signal_lib" sheetId="6" r:id="rId6"/>
     <sheet name="zq_signal_lib" sheetId="11" r:id="rId7"/>
     <sheet name="map_lib" sheetId="9" r:id="rId8"/>
@@ -3205,12 +3205,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3222,9 +3216,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3410,6 +3401,15 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3433,10 +3433,10 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3848,24 +3848,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="66" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="63" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="37" customWidth="1"/>
     <col min="3" max="3" width="7.44140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" style="37" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" style="64" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" style="35" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875" style="35" customWidth="1"/>
     <col min="9" max="10" width="16.6640625" style="18" customWidth="1"/>
     <col min="11" max="11" width="21.77734375" style="5" customWidth="1"/>
     <col min="12" max="12" width="30.6640625" style="5" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" style="18" customWidth="1"/>
     <col min="14" max="14" width="30.6640625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" style="51" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" style="48" customWidth="1"/>
     <col min="16" max="16" width="19.33203125" style="32" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" style="68" customWidth="1"/>
-    <col min="18" max="18" width="25.77734375" style="69" customWidth="1"/>
-    <col min="19" max="19" width="43.33203125" style="38" customWidth="1"/>
-    <col min="20" max="20" width="20.21875" style="70" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" style="65" customWidth="1"/>
+    <col min="18" max="18" width="25.77734375" style="66" customWidth="1"/>
+    <col min="19" max="19" width="43.33203125" style="36" customWidth="1"/>
+    <col min="20" max="20" width="20.21875" style="67" customWidth="1"/>
     <col min="21" max="22" width="14.21875" style="18" customWidth="1"/>
     <col min="23" max="23" width="15.109375" customWidth="1"/>
     <col min="24" max="24" width="16.6640625" customWidth="1"/>
@@ -3950,44 +3950,44 @@
       </c>
       <c r="V2" s="105"/>
     </row>
-    <row r="3" spans="1:22" s="63" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
+    <row r="3" spans="1:22" s="60" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="95" t="s">
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="88" t="s">
+      <c r="P3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="95" t="s">
+      <c r="Q3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="88" t="s">
+      <c r="R3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
     </row>
     <row r="4" spans="1:22" s="2" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="72" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -3996,7 +3996,7 @@
       <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="73" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -4029,13 +4029,13 @@
       <c r="N4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="93" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="Q4" s="93" t="s">
         <v>26</v>
       </c>
       <c r="R4" s="9" t="s">
@@ -4054,146 +4054,146 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="64" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+    <row r="5" spans="1:22" s="61" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-    </row>
-    <row r="6" spans="1:22" s="65" customFormat="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+    </row>
+    <row r="6" spans="1:22" s="62" customFormat="1">
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
       <c r="I6" s="34"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="102"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="99"/>
       <c r="T6" s="34"/>
       <c r="U6" s="34"/>
       <c r="V6" s="34"/>
     </row>
-    <row r="7" spans="1:22" s="64" customFormat="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
+    <row r="7" spans="1:22" s="61" customFormat="1">
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-    </row>
-    <row r="8" spans="1:22" s="65" customFormat="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+    </row>
+    <row r="8" spans="1:22" s="62" customFormat="1">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="34"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="102"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="99"/>
       <c r="T8" s="34"/>
       <c r="U8" s="34"/>
       <c r="V8" s="34"/>
     </row>
-    <row r="9" spans="1:22" s="64" customFormat="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
+    <row r="9" spans="1:22" s="61" customFormat="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-    </row>
-    <row r="10" spans="1:22" s="65" customFormat="1">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="100"/>
+    </row>
+    <row r="10" spans="1:22" s="62" customFormat="1">
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="34"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="102"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="99"/>
       <c r="T10" s="34"/>
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
@@ -4234,15 +4234,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="8.6640625" style="54" customWidth="1"/>
-    <col min="7" max="7" width="54.33203125" style="55" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" style="54" customWidth="1"/>
-    <col min="9" max="9" width="30.109375" style="56" customWidth="1"/>
-    <col min="10" max="16378" width="8.6640625" style="54" customWidth="1"/>
-    <col min="16379" max="16384" width="8.6640625" style="54"/>
+    <col min="1" max="6" width="8.6640625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="54.33203125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" style="51" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" style="53" customWidth="1"/>
+    <col min="10" max="16378" width="8.6640625" style="51" customWidth="1"/>
+    <col min="16379" max="16384" width="8.6640625" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="52" customFormat="1" ht="28.05" customHeight="1">
+    <row r="1" spans="1:9" s="49" customFormat="1" ht="28.05" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
@@ -4271,247 +4271,247 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="53" customFormat="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="62"/>
+    <row r="2" spans="1:9" s="50" customFormat="1">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="61"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="61"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="58"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="61"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="61"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="61"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="61"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="61"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="61"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="61"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="61"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="61"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="61"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="58"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="61"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="58"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="61"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="61"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="58"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="61"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="58"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="61"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="61"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="58"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="61"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="58"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="61"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I23" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -4536,148 +4536,122 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:ALA20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E91D211-0D08-4B9C-A991-5D255B7E43CE}">
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" customWidth="1"/>
-    <col min="18" max="18" width="11.77734375" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" customWidth="1"/>
-    <col min="21" max="21" width="9.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:989" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:21">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="114" t="s">
         <v>411</v>
       </c>
       <c r="E1" s="106"/>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="114" t="s">
         <v>412</v>
       </c>
       <c r="G1" s="106"/>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="114" t="s">
         <v>413</v>
       </c>
       <c r="I1" s="106"/>
-      <c r="J1" s="113" t="s">
+      <c r="J1" s="114" t="s">
         <v>414</v>
       </c>
       <c r="K1" s="106"/>
-      <c r="L1" s="113" t="s">
+      <c r="L1" s="114" t="s">
         <v>415</v>
       </c>
       <c r="M1" s="106"/>
-      <c r="N1" s="113" t="s">
+      <c r="N1" s="114" t="s">
         <v>416</v>
       </c>
       <c r="O1" s="106"/>
-      <c r="P1" s="114" t="s">
+      <c r="P1" s="113" t="s">
         <v>417</v>
       </c>
       <c r="Q1" s="106"/>
-      <c r="R1" s="114" t="s">
+      <c r="R1" s="113" t="s">
         <v>418</v>
       </c>
       <c r="S1" s="106"/>
-      <c r="T1" s="114" t="s">
+      <c r="T1" s="113" t="s">
         <v>419</v>
       </c>
       <c r="U1" s="106"/>
     </row>
-    <row r="2" spans="1:989" s="2" customFormat="1" ht="50.25" customHeight="1">
+    <row r="2" spans="1:21" ht="27.6">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="101" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:989" s="3" customFormat="1">
+    <row r="3" spans="1:21">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -4699,36 +4673,8 @@
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
-      <c r="AJZ3" s="18"/>
-      <c r="AKA3" s="18"/>
-      <c r="AKB3" s="18"/>
-      <c r="AKC3" s="18"/>
-      <c r="AKD3" s="18"/>
-      <c r="AKE3" s="18"/>
-      <c r="AKF3" s="18"/>
-      <c r="AKG3" s="18"/>
-      <c r="AKH3" s="18"/>
-      <c r="AKI3" s="18"/>
-      <c r="AKJ3" s="18"/>
-      <c r="AKK3" s="18"/>
-      <c r="AKL3" s="18"/>
-      <c r="AKM3" s="18"/>
-      <c r="AKN3" s="18"/>
-      <c r="AKO3" s="18"/>
-      <c r="AKP3" s="18"/>
-      <c r="AKQ3" s="18"/>
-      <c r="AKR3" s="18"/>
-      <c r="AKS3" s="18"/>
-      <c r="AKT3" s="18"/>
-      <c r="AKU3" s="18"/>
-      <c r="AKV3" s="18"/>
-      <c r="AKW3" s="18"/>
-      <c r="AKX3" s="18"/>
-      <c r="AKY3" s="18"/>
-      <c r="AKZ3" s="18"/>
-      <c r="ALA3" s="18"/>
-    </row>
-    <row r="4" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
@@ -4750,36 +4696,8 @@
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
-      <c r="AJZ4" s="5"/>
-      <c r="AKA4" s="5"/>
-      <c r="AKB4" s="5"/>
-      <c r="AKC4" s="5"/>
-      <c r="AKD4" s="5"/>
-      <c r="AKE4" s="5"/>
-      <c r="AKF4" s="5"/>
-      <c r="AKG4" s="5"/>
-      <c r="AKH4" s="5"/>
-      <c r="AKI4" s="5"/>
-      <c r="AKJ4" s="5"/>
-      <c r="AKK4" s="5"/>
-      <c r="AKL4" s="5"/>
-      <c r="AKM4" s="5"/>
-      <c r="AKN4" s="5"/>
-      <c r="AKO4" s="5"/>
-      <c r="AKP4" s="5"/>
-      <c r="AKQ4" s="5"/>
-      <c r="AKR4" s="5"/>
-      <c r="AKS4" s="5"/>
-      <c r="AKT4" s="5"/>
-      <c r="AKU4" s="5"/>
-      <c r="AKV4" s="5"/>
-      <c r="AKW4" s="5"/>
-      <c r="AKX4" s="5"/>
-      <c r="AKY4" s="5"/>
-      <c r="AKZ4" s="5"/>
-      <c r="ALA4" s="5"/>
-    </row>
-    <row r="5" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
@@ -4801,36 +4719,8 @@
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
-      <c r="AJZ5" s="5"/>
-      <c r="AKA5" s="5"/>
-      <c r="AKB5" s="5"/>
-      <c r="AKC5" s="5"/>
-      <c r="AKD5" s="5"/>
-      <c r="AKE5" s="5"/>
-      <c r="AKF5" s="5"/>
-      <c r="AKG5" s="5"/>
-      <c r="AKH5" s="5"/>
-      <c r="AKI5" s="5"/>
-      <c r="AKJ5" s="5"/>
-      <c r="AKK5" s="5"/>
-      <c r="AKL5" s="5"/>
-      <c r="AKM5" s="5"/>
-      <c r="AKN5" s="5"/>
-      <c r="AKO5" s="5"/>
-      <c r="AKP5" s="5"/>
-      <c r="AKQ5" s="5"/>
-      <c r="AKR5" s="5"/>
-      <c r="AKS5" s="5"/>
-      <c r="AKT5" s="5"/>
-      <c r="AKU5" s="5"/>
-      <c r="AKV5" s="5"/>
-      <c r="AKW5" s="5"/>
-      <c r="AKX5" s="5"/>
-      <c r="AKY5" s="5"/>
-      <c r="AKZ5" s="5"/>
-      <c r="ALA5" s="5"/>
-    </row>
-    <row r="6" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
@@ -4852,36 +4742,8 @@
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
-      <c r="AJZ6" s="5"/>
-      <c r="AKA6" s="5"/>
-      <c r="AKB6" s="5"/>
-      <c r="AKC6" s="5"/>
-      <c r="AKD6" s="5"/>
-      <c r="AKE6" s="5"/>
-      <c r="AKF6" s="5"/>
-      <c r="AKG6" s="5"/>
-      <c r="AKH6" s="5"/>
-      <c r="AKI6" s="5"/>
-      <c r="AKJ6" s="5"/>
-      <c r="AKK6" s="5"/>
-      <c r="AKL6" s="5"/>
-      <c r="AKM6" s="5"/>
-      <c r="AKN6" s="5"/>
-      <c r="AKO6" s="5"/>
-      <c r="AKP6" s="5"/>
-      <c r="AKQ6" s="5"/>
-      <c r="AKR6" s="5"/>
-      <c r="AKS6" s="5"/>
-      <c r="AKT6" s="5"/>
-      <c r="AKU6" s="5"/>
-      <c r="AKV6" s="5"/>
-      <c r="AKW6" s="5"/>
-      <c r="AKX6" s="5"/>
-      <c r="AKY6" s="5"/>
-      <c r="AKZ6" s="5"/>
-      <c r="ALA6" s="5"/>
-    </row>
-    <row r="7" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
@@ -4903,36 +4765,8 @@
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
-      <c r="AJZ7" s="5"/>
-      <c r="AKA7" s="5"/>
-      <c r="AKB7" s="5"/>
-      <c r="AKC7" s="5"/>
-      <c r="AKD7" s="5"/>
-      <c r="AKE7" s="5"/>
-      <c r="AKF7" s="5"/>
-      <c r="AKG7" s="5"/>
-      <c r="AKH7" s="5"/>
-      <c r="AKI7" s="5"/>
-      <c r="AKJ7" s="5"/>
-      <c r="AKK7" s="5"/>
-      <c r="AKL7" s="5"/>
-      <c r="AKM7" s="5"/>
-      <c r="AKN7" s="5"/>
-      <c r="AKO7" s="5"/>
-      <c r="AKP7" s="5"/>
-      <c r="AKQ7" s="5"/>
-      <c r="AKR7" s="5"/>
-      <c r="AKS7" s="5"/>
-      <c r="AKT7" s="5"/>
-      <c r="AKU7" s="5"/>
-      <c r="AKV7" s="5"/>
-      <c r="AKW7" s="5"/>
-      <c r="AKX7" s="5"/>
-      <c r="AKY7" s="5"/>
-      <c r="AKZ7" s="5"/>
-      <c r="ALA7" s="5"/>
-    </row>
-    <row r="8" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -4954,36 +4788,8 @@
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
-      <c r="AJZ8" s="5"/>
-      <c r="AKA8" s="5"/>
-      <c r="AKB8" s="5"/>
-      <c r="AKC8" s="5"/>
-      <c r="AKD8" s="5"/>
-      <c r="AKE8" s="5"/>
-      <c r="AKF8" s="5"/>
-      <c r="AKG8" s="5"/>
-      <c r="AKH8" s="5"/>
-      <c r="AKI8" s="5"/>
-      <c r="AKJ8" s="5"/>
-      <c r="AKK8" s="5"/>
-      <c r="AKL8" s="5"/>
-      <c r="AKM8" s="5"/>
-      <c r="AKN8" s="5"/>
-      <c r="AKO8" s="5"/>
-      <c r="AKP8" s="5"/>
-      <c r="AKQ8" s="5"/>
-      <c r="AKR8" s="5"/>
-      <c r="AKS8" s="5"/>
-      <c r="AKT8" s="5"/>
-      <c r="AKU8" s="5"/>
-      <c r="AKV8" s="5"/>
-      <c r="AKW8" s="5"/>
-      <c r="AKX8" s="5"/>
-      <c r="AKY8" s="5"/>
-      <c r="AKZ8" s="5"/>
-      <c r="ALA8" s="5"/>
-    </row>
-    <row r="9" spans="1:989" s="3" customFormat="1">
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -5005,36 +4811,8 @@
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="AJZ9" s="18"/>
-      <c r="AKA9" s="18"/>
-      <c r="AKB9" s="18"/>
-      <c r="AKC9" s="18"/>
-      <c r="AKD9" s="18"/>
-      <c r="AKE9" s="18"/>
-      <c r="AKF9" s="18"/>
-      <c r="AKG9" s="18"/>
-      <c r="AKH9" s="18"/>
-      <c r="AKI9" s="18"/>
-      <c r="AKJ9" s="18"/>
-      <c r="AKK9" s="18"/>
-      <c r="AKL9" s="18"/>
-      <c r="AKM9" s="18"/>
-      <c r="AKN9" s="18"/>
-      <c r="AKO9" s="18"/>
-      <c r="AKP9" s="18"/>
-      <c r="AKQ9" s="18"/>
-      <c r="AKR9" s="18"/>
-      <c r="AKS9" s="18"/>
-      <c r="AKT9" s="18"/>
-      <c r="AKU9" s="18"/>
-      <c r="AKV9" s="18"/>
-      <c r="AKW9" s="18"/>
-      <c r="AKX9" s="18"/>
-      <c r="AKY9" s="18"/>
-      <c r="AKZ9" s="18"/>
-      <c r="ALA9" s="18"/>
-    </row>
-    <row r="10" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -5056,36 +4834,8 @@
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
-      <c r="AJZ10" s="5"/>
-      <c r="AKA10" s="5"/>
-      <c r="AKB10" s="5"/>
-      <c r="AKC10" s="5"/>
-      <c r="AKD10" s="5"/>
-      <c r="AKE10" s="5"/>
-      <c r="AKF10" s="5"/>
-      <c r="AKG10" s="5"/>
-      <c r="AKH10" s="5"/>
-      <c r="AKI10" s="5"/>
-      <c r="AKJ10" s="5"/>
-      <c r="AKK10" s="5"/>
-      <c r="AKL10" s="5"/>
-      <c r="AKM10" s="5"/>
-      <c r="AKN10" s="5"/>
-      <c r="AKO10" s="5"/>
-      <c r="AKP10" s="5"/>
-      <c r="AKQ10" s="5"/>
-      <c r="AKR10" s="5"/>
-      <c r="AKS10" s="5"/>
-      <c r="AKT10" s="5"/>
-      <c r="AKU10" s="5"/>
-      <c r="AKV10" s="5"/>
-      <c r="AKW10" s="5"/>
-      <c r="AKX10" s="5"/>
-      <c r="AKY10" s="5"/>
-      <c r="AKZ10" s="5"/>
-      <c r="ALA10" s="5"/>
-    </row>
-    <row r="11" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
@@ -5107,36 +4857,8 @@
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
-      <c r="AJZ11" s="5"/>
-      <c r="AKA11" s="5"/>
-      <c r="AKB11" s="5"/>
-      <c r="AKC11" s="5"/>
-      <c r="AKD11" s="5"/>
-      <c r="AKE11" s="5"/>
-      <c r="AKF11" s="5"/>
-      <c r="AKG11" s="5"/>
-      <c r="AKH11" s="5"/>
-      <c r="AKI11" s="5"/>
-      <c r="AKJ11" s="5"/>
-      <c r="AKK11" s="5"/>
-      <c r="AKL11" s="5"/>
-      <c r="AKM11" s="5"/>
-      <c r="AKN11" s="5"/>
-      <c r="AKO11" s="5"/>
-      <c r="AKP11" s="5"/>
-      <c r="AKQ11" s="5"/>
-      <c r="AKR11" s="5"/>
-      <c r="AKS11" s="5"/>
-      <c r="AKT11" s="5"/>
-      <c r="AKU11" s="5"/>
-      <c r="AKV11" s="5"/>
-      <c r="AKW11" s="5"/>
-      <c r="AKX11" s="5"/>
-      <c r="AKY11" s="5"/>
-      <c r="AKZ11" s="5"/>
-      <c r="ALA11" s="5"/>
-    </row>
-    <row r="12" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -5158,36 +4880,8 @@
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
-      <c r="AJZ12" s="5"/>
-      <c r="AKA12" s="5"/>
-      <c r="AKB12" s="5"/>
-      <c r="AKC12" s="5"/>
-      <c r="AKD12" s="5"/>
-      <c r="AKE12" s="5"/>
-      <c r="AKF12" s="5"/>
-      <c r="AKG12" s="5"/>
-      <c r="AKH12" s="5"/>
-      <c r="AKI12" s="5"/>
-      <c r="AKJ12" s="5"/>
-      <c r="AKK12" s="5"/>
-      <c r="AKL12" s="5"/>
-      <c r="AKM12" s="5"/>
-      <c r="AKN12" s="5"/>
-      <c r="AKO12" s="5"/>
-      <c r="AKP12" s="5"/>
-      <c r="AKQ12" s="5"/>
-      <c r="AKR12" s="5"/>
-      <c r="AKS12" s="5"/>
-      <c r="AKT12" s="5"/>
-      <c r="AKU12" s="5"/>
-      <c r="AKV12" s="5"/>
-      <c r="AKW12" s="5"/>
-      <c r="AKX12" s="5"/>
-      <c r="AKY12" s="5"/>
-      <c r="AKZ12" s="5"/>
-      <c r="ALA12" s="5"/>
-    </row>
-    <row r="13" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -5209,36 +4903,8 @@
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
-      <c r="AJZ13" s="5"/>
-      <c r="AKA13" s="5"/>
-      <c r="AKB13" s="5"/>
-      <c r="AKC13" s="5"/>
-      <c r="AKD13" s="5"/>
-      <c r="AKE13" s="5"/>
-      <c r="AKF13" s="5"/>
-      <c r="AKG13" s="5"/>
-      <c r="AKH13" s="5"/>
-      <c r="AKI13" s="5"/>
-      <c r="AKJ13" s="5"/>
-      <c r="AKK13" s="5"/>
-      <c r="AKL13" s="5"/>
-      <c r="AKM13" s="5"/>
-      <c r="AKN13" s="5"/>
-      <c r="AKO13" s="5"/>
-      <c r="AKP13" s="5"/>
-      <c r="AKQ13" s="5"/>
-      <c r="AKR13" s="5"/>
-      <c r="AKS13" s="5"/>
-      <c r="AKT13" s="5"/>
-      <c r="AKU13" s="5"/>
-      <c r="AKV13" s="5"/>
-      <c r="AKW13" s="5"/>
-      <c r="AKX13" s="5"/>
-      <c r="AKY13" s="5"/>
-      <c r="AKZ13" s="5"/>
-      <c r="ALA13" s="5"/>
-    </row>
-    <row r="14" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
@@ -5260,36 +4926,8 @@
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
-      <c r="AJZ14" s="5"/>
-      <c r="AKA14" s="5"/>
-      <c r="AKB14" s="5"/>
-      <c r="AKC14" s="5"/>
-      <c r="AKD14" s="5"/>
-      <c r="AKE14" s="5"/>
-      <c r="AKF14" s="5"/>
-      <c r="AKG14" s="5"/>
-      <c r="AKH14" s="5"/>
-      <c r="AKI14" s="5"/>
-      <c r="AKJ14" s="5"/>
-      <c r="AKK14" s="5"/>
-      <c r="AKL14" s="5"/>
-      <c r="AKM14" s="5"/>
-      <c r="AKN14" s="5"/>
-      <c r="AKO14" s="5"/>
-      <c r="AKP14" s="5"/>
-      <c r="AKQ14" s="5"/>
-      <c r="AKR14" s="5"/>
-      <c r="AKS14" s="5"/>
-      <c r="AKT14" s="5"/>
-      <c r="AKU14" s="5"/>
-      <c r="AKV14" s="5"/>
-      <c r="AKW14" s="5"/>
-      <c r="AKX14" s="5"/>
-      <c r="AKY14" s="5"/>
-      <c r="AKZ14" s="5"/>
-      <c r="ALA14" s="5"/>
-    </row>
-    <row r="15" spans="1:989" s="3" customFormat="1">
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
@@ -5311,36 +4949,8 @@
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
-      <c r="AJZ15" s="18"/>
-      <c r="AKA15" s="18"/>
-      <c r="AKB15" s="18"/>
-      <c r="AKC15" s="18"/>
-      <c r="AKD15" s="18"/>
-      <c r="AKE15" s="18"/>
-      <c r="AKF15" s="18"/>
-      <c r="AKG15" s="18"/>
-      <c r="AKH15" s="18"/>
-      <c r="AKI15" s="18"/>
-      <c r="AKJ15" s="18"/>
-      <c r="AKK15" s="18"/>
-      <c r="AKL15" s="18"/>
-      <c r="AKM15" s="18"/>
-      <c r="AKN15" s="18"/>
-      <c r="AKO15" s="18"/>
-      <c r="AKP15" s="18"/>
-      <c r="AKQ15" s="18"/>
-      <c r="AKR15" s="18"/>
-      <c r="AKS15" s="18"/>
-      <c r="AKT15" s="18"/>
-      <c r="AKU15" s="18"/>
-      <c r="AKV15" s="18"/>
-      <c r="AKW15" s="18"/>
-      <c r="AKX15" s="18"/>
-      <c r="AKY15" s="18"/>
-      <c r="AKZ15" s="18"/>
-      <c r="ALA15" s="18"/>
-    </row>
-    <row r="16" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -5362,36 +4972,8 @@
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-      <c r="AJZ16" s="5"/>
-      <c r="AKA16" s="5"/>
-      <c r="AKB16" s="5"/>
-      <c r="AKC16" s="5"/>
-      <c r="AKD16" s="5"/>
-      <c r="AKE16" s="5"/>
-      <c r="AKF16" s="5"/>
-      <c r="AKG16" s="5"/>
-      <c r="AKH16" s="5"/>
-      <c r="AKI16" s="5"/>
-      <c r="AKJ16" s="5"/>
-      <c r="AKK16" s="5"/>
-      <c r="AKL16" s="5"/>
-      <c r="AKM16" s="5"/>
-      <c r="AKN16" s="5"/>
-      <c r="AKO16" s="5"/>
-      <c r="AKP16" s="5"/>
-      <c r="AKQ16" s="5"/>
-      <c r="AKR16" s="5"/>
-      <c r="AKS16" s="5"/>
-      <c r="AKT16" s="5"/>
-      <c r="AKU16" s="5"/>
-      <c r="AKV16" s="5"/>
-      <c r="AKW16" s="5"/>
-      <c r="AKX16" s="5"/>
-      <c r="AKY16" s="5"/>
-      <c r="AKZ16" s="5"/>
-      <c r="ALA16" s="5"/>
-    </row>
-    <row r="17" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
@@ -5413,36 +4995,8 @@
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-      <c r="AJZ17" s="5"/>
-      <c r="AKA17" s="5"/>
-      <c r="AKB17" s="5"/>
-      <c r="AKC17" s="5"/>
-      <c r="AKD17" s="5"/>
-      <c r="AKE17" s="5"/>
-      <c r="AKF17" s="5"/>
-      <c r="AKG17" s="5"/>
-      <c r="AKH17" s="5"/>
-      <c r="AKI17" s="5"/>
-      <c r="AKJ17" s="5"/>
-      <c r="AKK17" s="5"/>
-      <c r="AKL17" s="5"/>
-      <c r="AKM17" s="5"/>
-      <c r="AKN17" s="5"/>
-      <c r="AKO17" s="5"/>
-      <c r="AKP17" s="5"/>
-      <c r="AKQ17" s="5"/>
-      <c r="AKR17" s="5"/>
-      <c r="AKS17" s="5"/>
-      <c r="AKT17" s="5"/>
-      <c r="AKU17" s="5"/>
-      <c r="AKV17" s="5"/>
-      <c r="AKW17" s="5"/>
-      <c r="AKX17" s="5"/>
-      <c r="AKY17" s="5"/>
-      <c r="AKZ17" s="5"/>
-      <c r="ALA17" s="5"/>
-    </row>
-    <row r="18" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -5464,36 +5018,8 @@
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
-      <c r="AJZ18" s="5"/>
-      <c r="AKA18" s="5"/>
-      <c r="AKB18" s="5"/>
-      <c r="AKC18" s="5"/>
-      <c r="AKD18" s="5"/>
-      <c r="AKE18" s="5"/>
-      <c r="AKF18" s="5"/>
-      <c r="AKG18" s="5"/>
-      <c r="AKH18" s="5"/>
-      <c r="AKI18" s="5"/>
-      <c r="AKJ18" s="5"/>
-      <c r="AKK18" s="5"/>
-      <c r="AKL18" s="5"/>
-      <c r="AKM18" s="5"/>
-      <c r="AKN18" s="5"/>
-      <c r="AKO18" s="5"/>
-      <c r="AKP18" s="5"/>
-      <c r="AKQ18" s="5"/>
-      <c r="AKR18" s="5"/>
-      <c r="AKS18" s="5"/>
-      <c r="AKT18" s="5"/>
-      <c r="AKU18" s="5"/>
-      <c r="AKV18" s="5"/>
-      <c r="AKW18" s="5"/>
-      <c r="AKX18" s="5"/>
-      <c r="AKY18" s="5"/>
-      <c r="AKZ18" s="5"/>
-      <c r="ALA18" s="5"/>
-    </row>
-    <row r="19" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -5515,36 +5041,8 @@
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
-      <c r="AJZ19" s="5"/>
-      <c r="AKA19" s="5"/>
-      <c r="AKB19" s="5"/>
-      <c r="AKC19" s="5"/>
-      <c r="AKD19" s="5"/>
-      <c r="AKE19" s="5"/>
-      <c r="AKF19" s="5"/>
-      <c r="AKG19" s="5"/>
-      <c r="AKH19" s="5"/>
-      <c r="AKI19" s="5"/>
-      <c r="AKJ19" s="5"/>
-      <c r="AKK19" s="5"/>
-      <c r="AKL19" s="5"/>
-      <c r="AKM19" s="5"/>
-      <c r="AKN19" s="5"/>
-      <c r="AKO19" s="5"/>
-      <c r="AKP19" s="5"/>
-      <c r="AKQ19" s="5"/>
-      <c r="AKR19" s="5"/>
-      <c r="AKS19" s="5"/>
-      <c r="AKT19" s="5"/>
-      <c r="AKU19" s="5"/>
-      <c r="AKV19" s="5"/>
-      <c r="AKW19" s="5"/>
-      <c r="AKX19" s="5"/>
-      <c r="AKY19" s="5"/>
-      <c r="AKZ19" s="5"/>
-      <c r="ALA19" s="5"/>
-    </row>
-    <row r="20" spans="1:989" s="4" customFormat="1">
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
@@ -5566,50 +5064,22 @@
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
-      <c r="AJZ20" s="5"/>
-      <c r="AKA20" s="5"/>
-      <c r="AKB20" s="5"/>
-      <c r="AKC20" s="5"/>
-      <c r="AKD20" s="5"/>
-      <c r="AKE20" s="5"/>
-      <c r="AKF20" s="5"/>
-      <c r="AKG20" s="5"/>
-      <c r="AKH20" s="5"/>
-      <c r="AKI20" s="5"/>
-      <c r="AKJ20" s="5"/>
-      <c r="AKK20" s="5"/>
-      <c r="AKL20" s="5"/>
-      <c r="AKM20" s="5"/>
-      <c r="AKN20" s="5"/>
-      <c r="AKO20" s="5"/>
-      <c r="AKP20" s="5"/>
-      <c r="AKQ20" s="5"/>
-      <c r="AKR20" s="5"/>
-      <c r="AKS20" s="5"/>
-      <c r="AKT20" s="5"/>
-      <c r="AKU20" s="5"/>
-      <c r="AKV20" s="5"/>
-      <c r="AKW20" s="5"/>
-      <c r="AKX20" s="5"/>
-      <c r="AKY20" s="5"/>
-      <c r="AKZ20" s="5"/>
-      <c r="ALA20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5636,27 +5106,27 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="113"/>
+      <c r="D1" s="114"/>
       <c r="E1" s="106"/>
-      <c r="F1" s="113"/>
+      <c r="F1" s="114"/>
       <c r="G1" s="106"/>
-      <c r="H1" s="113"/>
+      <c r="H1" s="114"/>
       <c r="I1" s="106"/>
-      <c r="J1" s="113"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="106"/>
-      <c r="L1" s="113"/>
+      <c r="L1" s="114"/>
       <c r="M1" s="106"/>
-      <c r="N1" s="113"/>
+      <c r="N1" s="114"/>
       <c r="O1" s="106"/>
-      <c r="P1" s="113"/>
+      <c r="P1" s="114"/>
       <c r="Q1" s="106"/>
-      <c r="R1" s="113"/>
+      <c r="R1" s="114"/>
       <c r="S1" s="106"/>
-      <c r="T1" s="113"/>
+      <c r="T1" s="114"/>
       <c r="U1" s="106"/>
-      <c r="V1" s="113"/>
+      <c r="V1" s="114"/>
       <c r="W1" s="106"/>
-      <c r="X1" s="113"/>
+      <c r="X1" s="114"/>
       <c r="Y1" s="106"/>
     </row>
     <row r="2" spans="1:993" s="2" customFormat="1" ht="50.25" customHeight="1">
@@ -6747,46 +6217,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AMB11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C0F104-03D5-4599-B00B-59F9B15A56A5}">
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="W6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:AB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="2" width="2.77734375" style="32" customWidth="1"/>
-    <col min="3" max="5" width="2.77734375" style="37" customWidth="1"/>
-    <col min="6" max="10" width="15.6640625" style="37" customWidth="1"/>
-    <col min="11" max="14" width="15.6640625" style="38" customWidth="1"/>
-    <col min="15" max="17" width="15.6640625" style="39" customWidth="1"/>
-    <col min="18" max="20" width="15.6640625" style="38" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" style="39" customWidth="1"/>
-    <col min="22" max="24" width="15.6640625" style="38" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" style="39" customWidth="1"/>
-    <col min="26" max="28" width="15.6640625" style="38" customWidth="1"/>
-    <col min="29" max="991" width="8.44140625" customWidth="1"/>
-    <col min="992" max="1017" width="9.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:1016" s="2" customFormat="1" ht="50.25" customHeight="1">
+    <row r="1" spans="1:28" ht="27.6">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="45" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="115" t="s">
@@ -6817,12 +6270,12 @@
       <c r="AA1" s="118"/>
       <c r="AB1" s="119"/>
     </row>
-    <row r="2" spans="1:1016" s="35" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+    <row r="2" spans="1:28">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="120" t="s">
         <v>43</v>
       </c>
@@ -6858,620 +6311,368 @@
       <c r="Z2" s="123"/>
       <c r="AA2" s="123"/>
       <c r="AB2" s="124"/>
-      <c r="ALA2" s="51"/>
-      <c r="ALB2" s="51"/>
-      <c r="ALC2" s="51"/>
-      <c r="ALD2" s="51"/>
-      <c r="ALE2" s="51"/>
-      <c r="ALF2" s="51"/>
-      <c r="ALG2" s="51"/>
-      <c r="ALH2" s="51"/>
-      <c r="ALI2" s="51"/>
-      <c r="ALJ2" s="51"/>
-      <c r="ALK2" s="51"/>
-      <c r="ALL2" s="51"/>
-      <c r="ALM2" s="51"/>
-      <c r="ALN2" s="51"/>
-      <c r="ALO2" s="51"/>
-      <c r="ALP2" s="51"/>
-      <c r="ALQ2" s="51"/>
-      <c r="ALR2" s="51"/>
-      <c r="ALS2" s="51"/>
-      <c r="ALT2" s="51"/>
-      <c r="ALU2" s="51"/>
-      <c r="ALV2" s="51"/>
-      <c r="ALW2" s="51"/>
-      <c r="ALX2" s="51"/>
-      <c r="ALY2" s="51"/>
-      <c r="ALZ2" s="51"/>
-      <c r="AMA2" s="51"/>
-      <c r="AMB2" s="51"/>
-    </row>
-    <row r="3" spans="1:1016" s="35" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
+    </row>
+    <row r="3" spans="1:28" ht="27.6">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="41" t="s">
+      <c r="O3" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="41" t="s">
+      <c r="S3" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="41" t="s">
+      <c r="U3" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="41" t="s">
+      <c r="V3" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="41" t="s">
+      <c r="W3" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="41" t="s">
+      <c r="X3" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="41" t="s">
+      <c r="Y3" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="41" t="s">
+      <c r="Z3" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="41" t="s">
+      <c r="AA3" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="ALA3" s="51"/>
-      <c r="ALB3" s="51"/>
-      <c r="ALC3" s="51"/>
-      <c r="ALD3" s="51"/>
-      <c r="ALE3" s="51"/>
-      <c r="ALF3" s="51"/>
-      <c r="ALG3" s="51"/>
-      <c r="ALH3" s="51"/>
-      <c r="ALI3" s="51"/>
-      <c r="ALJ3" s="51"/>
-      <c r="ALK3" s="51"/>
-      <c r="ALL3" s="51"/>
-      <c r="ALM3" s="51"/>
-      <c r="ALN3" s="51"/>
-      <c r="ALO3" s="51"/>
-      <c r="ALP3" s="51"/>
-      <c r="ALQ3" s="51"/>
-      <c r="ALR3" s="51"/>
-      <c r="ALS3" s="51"/>
-      <c r="ALT3" s="51"/>
-      <c r="ALU3" s="51"/>
-      <c r="ALV3" s="51"/>
-      <c r="ALW3" s="51"/>
-      <c r="ALX3" s="51"/>
-      <c r="ALY3" s="51"/>
-      <c r="ALZ3" s="51"/>
-      <c r="AMA3" s="51"/>
-      <c r="AMB3" s="51"/>
-    </row>
-    <row r="4" spans="1:1016" s="3" customFormat="1">
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="ALA4" s="18"/>
-      <c r="ALB4" s="18"/>
-      <c r="ALC4" s="18"/>
-      <c r="ALD4" s="18"/>
-      <c r="ALE4" s="18"/>
-      <c r="ALF4" s="18"/>
-      <c r="ALG4" s="18"/>
-      <c r="ALH4" s="18"/>
-      <c r="ALI4" s="18"/>
-      <c r="ALJ4" s="18"/>
-      <c r="ALK4" s="18"/>
-      <c r="ALL4" s="18"/>
-      <c r="ALM4" s="18"/>
-      <c r="ALN4" s="18"/>
-      <c r="ALO4" s="18"/>
-      <c r="ALP4" s="18"/>
-      <c r="ALQ4" s="18"/>
-      <c r="ALR4" s="18"/>
-      <c r="ALS4" s="18"/>
-      <c r="ALT4" s="18"/>
-      <c r="ALU4" s="18"/>
-      <c r="ALV4" s="18"/>
-      <c r="ALW4" s="18"/>
-      <c r="ALX4" s="18"/>
-      <c r="ALY4" s="18"/>
-      <c r="ALZ4" s="18"/>
-      <c r="AMA4" s="18"/>
-      <c r="AMB4" s="18"/>
-    </row>
-    <row r="5" spans="1:1016" s="36" customFormat="1" ht="409.05" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+    </row>
+    <row r="5" spans="1:28" ht="409.6">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="49" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" s="49" t="s">
+      <c r="Q5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="49" t="s">
+      <c r="R5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="49" t="s">
+      <c r="S5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="T5" s="49" t="s">
+      <c r="T5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="U5" s="49" t="s">
+      <c r="U5" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="49" t="s">
+      <c r="V5" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="W5" s="49" t="s">
+      <c r="W5" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="X5" s="49" t="s">
+      <c r="X5" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="Y5" s="50" t="s">
+      <c r="Y5" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="Z5" s="50" t="s">
+      <c r="Z5" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AA5" s="50" t="s">
+      <c r="AA5" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AB5" s="50" t="s">
+      <c r="AB5" s="47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:1016" s="3" customFormat="1">
+    <row r="6" spans="1:28">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="ALA6" s="18"/>
-      <c r="ALB6" s="18"/>
-      <c r="ALC6" s="18"/>
-      <c r="ALD6" s="18"/>
-      <c r="ALE6" s="18"/>
-      <c r="ALF6" s="18"/>
-      <c r="ALG6" s="18"/>
-      <c r="ALH6" s="18"/>
-      <c r="ALI6" s="18"/>
-      <c r="ALJ6" s="18"/>
-      <c r="ALK6" s="18"/>
-      <c r="ALL6" s="18"/>
-      <c r="ALM6" s="18"/>
-      <c r="ALN6" s="18"/>
-      <c r="ALO6" s="18"/>
-      <c r="ALP6" s="18"/>
-      <c r="ALQ6" s="18"/>
-      <c r="ALR6" s="18"/>
-      <c r="ALS6" s="18"/>
-      <c r="ALT6" s="18"/>
-      <c r="ALU6" s="18"/>
-      <c r="ALV6" s="18"/>
-      <c r="ALW6" s="18"/>
-      <c r="ALX6" s="18"/>
-      <c r="ALY6" s="18"/>
-      <c r="ALZ6" s="18"/>
-      <c r="AMA6" s="18"/>
-      <c r="AMB6" s="18"/>
-    </row>
-    <row r="7" spans="1:1016" s="4" customFormat="1">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="ALA7" s="5"/>
-      <c r="ALB7" s="5"/>
-      <c r="ALC7" s="5"/>
-      <c r="ALD7" s="5"/>
-      <c r="ALE7" s="5"/>
-      <c r="ALF7" s="5"/>
-      <c r="ALG7" s="5"/>
-      <c r="ALH7" s="5"/>
-      <c r="ALI7" s="5"/>
-      <c r="ALJ7" s="5"/>
-      <c r="ALK7" s="5"/>
-      <c r="ALL7" s="5"/>
-      <c r="ALM7" s="5"/>
-      <c r="ALN7" s="5"/>
-      <c r="ALO7" s="5"/>
-      <c r="ALP7" s="5"/>
-      <c r="ALQ7" s="5"/>
-      <c r="ALR7" s="5"/>
-      <c r="ALS7" s="5"/>
-      <c r="ALT7" s="5"/>
-      <c r="ALU7" s="5"/>
-      <c r="ALV7" s="5"/>
-      <c r="ALW7" s="5"/>
-      <c r="ALX7" s="5"/>
-      <c r="ALY7" s="5"/>
-      <c r="ALZ7" s="5"/>
-      <c r="AMA7" s="5"/>
-      <c r="AMB7" s="5"/>
-    </row>
-    <row r="8" spans="1:1016" s="3" customFormat="1">
+      <c r="C7" s="44"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="ALA8" s="18"/>
-      <c r="ALB8" s="18"/>
-      <c r="ALC8" s="18"/>
-      <c r="ALD8" s="18"/>
-      <c r="ALE8" s="18"/>
-      <c r="ALF8" s="18"/>
-      <c r="ALG8" s="18"/>
-      <c r="ALH8" s="18"/>
-      <c r="ALI8" s="18"/>
-      <c r="ALJ8" s="18"/>
-      <c r="ALK8" s="18"/>
-      <c r="ALL8" s="18"/>
-      <c r="ALM8" s="18"/>
-      <c r="ALN8" s="18"/>
-      <c r="ALO8" s="18"/>
-      <c r="ALP8" s="18"/>
-      <c r="ALQ8" s="18"/>
-      <c r="ALR8" s="18"/>
-      <c r="ALS8" s="18"/>
-      <c r="ALT8" s="18"/>
-      <c r="ALU8" s="18"/>
-      <c r="ALV8" s="18"/>
-      <c r="ALW8" s="18"/>
-      <c r="ALX8" s="18"/>
-      <c r="ALY8" s="18"/>
-      <c r="ALZ8" s="18"/>
-      <c r="AMA8" s="18"/>
-      <c r="AMB8" s="18"/>
-    </row>
-    <row r="9" spans="1:1016" s="4" customFormat="1">
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="ALA9" s="5"/>
-      <c r="ALB9" s="5"/>
-      <c r="ALC9" s="5"/>
-      <c r="ALD9" s="5"/>
-      <c r="ALE9" s="5"/>
-      <c r="ALF9" s="5"/>
-      <c r="ALG9" s="5"/>
-      <c r="ALH9" s="5"/>
-      <c r="ALI9" s="5"/>
-      <c r="ALJ9" s="5"/>
-      <c r="ALK9" s="5"/>
-      <c r="ALL9" s="5"/>
-      <c r="ALM9" s="5"/>
-      <c r="ALN9" s="5"/>
-      <c r="ALO9" s="5"/>
-      <c r="ALP9" s="5"/>
-      <c r="ALQ9" s="5"/>
-      <c r="ALR9" s="5"/>
-      <c r="ALS9" s="5"/>
-      <c r="ALT9" s="5"/>
-      <c r="ALU9" s="5"/>
-      <c r="ALV9" s="5"/>
-      <c r="ALW9" s="5"/>
-      <c r="ALX9" s="5"/>
-      <c r="ALY9" s="5"/>
-      <c r="ALZ9" s="5"/>
-      <c r="AMA9" s="5"/>
-      <c r="AMB9" s="5"/>
-    </row>
-    <row r="10" spans="1:1016" s="3" customFormat="1">
+      <c r="C9" s="44"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="ALA10" s="18"/>
-      <c r="ALB10" s="18"/>
-      <c r="ALC10" s="18"/>
-      <c r="ALD10" s="18"/>
-      <c r="ALE10" s="18"/>
-      <c r="ALF10" s="18"/>
-      <c r="ALG10" s="18"/>
-      <c r="ALH10" s="18"/>
-      <c r="ALI10" s="18"/>
-      <c r="ALJ10" s="18"/>
-      <c r="ALK10" s="18"/>
-      <c r="ALL10" s="18"/>
-      <c r="ALM10" s="18"/>
-      <c r="ALN10" s="18"/>
-      <c r="ALO10" s="18"/>
-      <c r="ALP10" s="18"/>
-      <c r="ALQ10" s="18"/>
-      <c r="ALR10" s="18"/>
-      <c r="ALS10" s="18"/>
-      <c r="ALT10" s="18"/>
-      <c r="ALU10" s="18"/>
-      <c r="ALV10" s="18"/>
-      <c r="ALW10" s="18"/>
-      <c r="ALX10" s="18"/>
-      <c r="ALY10" s="18"/>
-      <c r="ALZ10" s="18"/>
-      <c r="AMA10" s="18"/>
-      <c r="AMB10" s="18"/>
-    </row>
-    <row r="11" spans="1:1016" s="4" customFormat="1">
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="ALA11" s="5"/>
-      <c r="ALB11" s="5"/>
-      <c r="ALC11" s="5"/>
-      <c r="ALD11" s="5"/>
-      <c r="ALE11" s="5"/>
-      <c r="ALF11" s="5"/>
-      <c r="ALG11" s="5"/>
-      <c r="ALH11" s="5"/>
-      <c r="ALI11" s="5"/>
-      <c r="ALJ11" s="5"/>
-      <c r="ALK11" s="5"/>
-      <c r="ALL11" s="5"/>
-      <c r="ALM11" s="5"/>
-      <c r="ALN11" s="5"/>
-      <c r="ALO11" s="5"/>
-      <c r="ALP11" s="5"/>
-      <c r="ALQ11" s="5"/>
-      <c r="ALR11" s="5"/>
-      <c r="ALS11" s="5"/>
-      <c r="ALT11" s="5"/>
-      <c r="ALU11" s="5"/>
-      <c r="ALV11" s="5"/>
-      <c r="ALW11" s="5"/>
-      <c r="ALX11" s="5"/>
-      <c r="ALY11" s="5"/>
-      <c r="ALZ11" s="5"/>
-      <c r="AMA11" s="5"/>
-      <c r="AMB11" s="5"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7484,9 +6685,8 @@
     <mergeCell ref="T2:X2"/>
     <mergeCell ref="Y2:AB2"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
